--- a/Thematic ETF_20250106.xlsx
+++ b/Thematic ETF_20250106.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이승기\Desktop\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\자산배분전략실\상품개발협의체\국내외 ETF 현황\Thematic ETF\20250106\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="1067">
   <si>
     <t>PAVE</t>
   </si>
@@ -3241,17 +3241,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11월초 대비
-fund flow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUM fund flow</t>
+    <t>합계</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>fund flow 
 %</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUM 순유입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순유입</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3263,7 +3266,7 @@
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="176" formatCode="\$#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3298,6 +3301,15 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -3305,7 +3317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3315,6 +3327,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3351,7 +3369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3376,13 +3394,22 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7952,10 +7979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7968,33 +7995,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1054</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>1050</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>1053</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>1051</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>1052</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>1065</v>
+      <c r="E2" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8007,16 +8034,16 @@
       <c r="C3" s="6">
         <v>13811976500</v>
       </c>
-      <c r="D3" s="7" t="e">
-        <f>C3/#REF!</f>
-        <v>#REF!</v>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D34" si="0">C3/$C$76</f>
+        <v>9.92591682571074E-2</v>
       </c>
       <c r="E3" s="6">
         <v>9622575000</v>
       </c>
-      <c r="F3" s="7" t="e">
-        <f>E3/#REF!</f>
-        <v>#REF!</v>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F34" si="1">E3/$E$76</f>
+        <v>0.56908347929577507</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -8029,16 +8056,16 @@
       <c r="C4" s="6">
         <v>4521750000</v>
       </c>
-      <c r="D4" s="7" t="e">
-        <f>C4/#REF!</f>
-        <v>#REF!</v>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2495359666053256E-2</v>
       </c>
       <c r="E4" s="6">
         <v>4475940000</v>
       </c>
-      <c r="F4" s="7" t="e">
-        <f>E4/#REF!</f>
-        <v>#REF!</v>
+      <c r="F4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.26470913537375718</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8051,16 +8078,16 @@
       <c r="C5" s="6">
         <v>2851070000</v>
       </c>
-      <c r="D5" s="7" t="e">
-        <f>C5/#REF!</f>
-        <v>#REF!</v>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0489090525370589E-2</v>
       </c>
       <c r="E5" s="6">
         <v>1148200000</v>
       </c>
-      <c r="F5" s="7" t="e">
-        <f>E5/#REF!</f>
-        <v>#REF!</v>
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>6.7905072283397011E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8073,16 +8100,16 @@
       <c r="C6" s="6">
         <v>1147030000</v>
       </c>
-      <c r="D6" s="7" t="e">
-        <f>C6/#REF!</f>
-        <v>#REF!</v>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>8.243081195942515E-3</v>
       </c>
       <c r="E6" s="6">
         <v>868230000</v>
       </c>
-      <c r="F6" s="7" t="e">
-        <f>E6/#REF!</f>
-        <v>#REF!</v>
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>5.1347518645369961E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8095,16 +8122,16 @@
       <c r="C7" s="6">
         <v>7887300000</v>
       </c>
-      <c r="D7" s="7" t="e">
-        <f>C7/#REF!</f>
-        <v>#REF!</v>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6681738330084996E-2</v>
       </c>
       <c r="E7" s="6">
         <v>827810000</v>
       </c>
-      <c r="F7" s="7" t="e">
-        <f>E7/#REF!</f>
-        <v>#REF!</v>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>4.8957061389060162E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8117,16 +8144,16 @@
       <c r="C8" s="6">
         <v>8983250000</v>
       </c>
-      <c r="D8" s="7" t="e">
-        <f>C8/#REF!</f>
-        <v>#REF!</v>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>6.4557735328152357E-2</v>
       </c>
       <c r="E8" s="6">
         <v>822290000</v>
       </c>
-      <c r="F8" s="7" t="e">
-        <f>E8/#REF!</f>
-        <v>#REF!</v>
+      <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>4.8630606068554717E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -8139,16 +8166,16 @@
       <c r="C9" s="6">
         <v>11022380000</v>
       </c>
-      <c r="D9" s="7" t="e">
-        <f>C9/#REF!</f>
-        <v>#REF!</v>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>7.9211854365215259E-2</v>
       </c>
       <c r="E9" s="6">
         <v>666670000</v>
       </c>
-      <c r="F9" s="7" t="e">
-        <f>E9/#REF!</f>
-        <v>#REF!</v>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>3.9427168210392168E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -8161,16 +8188,16 @@
       <c r="C10" s="6">
         <v>835960000</v>
       </c>
-      <c r="D10" s="7" t="e">
-        <f>C10/#REF!</f>
-        <v>#REF!</v>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0075901733695758E-3</v>
       </c>
       <c r="E10" s="6">
         <v>666420000</v>
       </c>
-      <c r="F10" s="7" t="e">
-        <f>E10/#REF!</f>
-        <v>#REF!</v>
+      <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>3.9412383096238839E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -8183,16 +8210,16 @@
       <c r="C11" s="6">
         <v>10005330000</v>
       </c>
-      <c r="D11" s="7" t="e">
-        <f>C11/#REF!</f>
-        <v>#REF!</v>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>7.1902868784774171E-2</v>
       </c>
       <c r="E11" s="6">
         <v>623149999.99999976</v>
       </c>
-      <c r="F11" s="7" t="e">
-        <f>E11/#REF!</f>
-        <v>#REF!</v>
+      <c r="F11" s="7">
+        <f t="shared" si="1"/>
+        <v>3.6853375538581111E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -8205,16 +8232,16 @@
       <c r="C12" s="6">
         <v>5240552710</v>
       </c>
-      <c r="D12" s="7" t="e">
-        <f>C12/#REF!</f>
-        <v>#REF!</v>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7661004071512155E-2</v>
       </c>
       <c r="E12" s="6">
         <v>379996900</v>
       </c>
-      <c r="F12" s="7" t="e">
-        <f>E12/#REF!</f>
-        <v>#REF!</v>
+      <c r="F12" s="7">
+        <f t="shared" si="1"/>
+        <v>2.2473190177640469E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -8227,16 +8254,16 @@
       <c r="C13" s="6">
         <v>3998480400</v>
       </c>
-      <c r="D13" s="7" t="e">
-        <f>C13/#REF!</f>
-        <v>#REF!</v>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8734905449364623E-2</v>
       </c>
       <c r="E13" s="6">
         <v>312026400</v>
       </c>
-      <c r="F13" s="7" t="e">
-        <f>E13/#REF!</f>
-        <v>#REF!</v>
+      <c r="F13" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8453383771405808E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -8249,16 +8276,16 @@
       <c r="C14" s="6">
         <v>1226620000</v>
       </c>
-      <c r="D14" s="7" t="e">
-        <f>C14/#REF!</f>
-        <v>#REF!</v>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8150512685518309E-3</v>
       </c>
       <c r="E14" s="6">
         <v>257160000</v>
       </c>
-      <c r="F14" s="7" t="e">
-        <f>E14/#REF!</f>
-        <v>#REF!</v>
+      <c r="F14" s="7">
+        <f t="shared" si="1"/>
+        <v>1.520855982267756E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -8271,16 +8298,16 @@
       <c r="C15" s="6">
         <v>5820000000</v>
       </c>
-      <c r="D15" s="7" t="e">
-        <f>C15/#REF!</f>
-        <v>#REF!</v>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>4.1825176813496977E-2</v>
       </c>
       <c r="E15" s="6">
         <v>250000000</v>
       </c>
-      <c r="F15" s="7" t="e">
-        <f>E15/#REF!</f>
-        <v>#REF!</v>
+      <c r="F15" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4785114153326295E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -8293,16 +8320,16 @@
       <c r="C16" s="6">
         <v>1401770000</v>
       </c>
-      <c r="D16" s="7" t="e">
-        <f>C16/#REF!</f>
-        <v>#REF!</v>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.007375912403018E-2</v>
       </c>
       <c r="E16" s="6">
         <v>231350000</v>
       </c>
-      <c r="F16" s="7" t="e">
-        <f>E16/#REF!</f>
-        <v>#REF!</v>
+      <c r="F16" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3682144637488153E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -8315,16 +8342,16 @@
       <c r="C17" s="6">
         <v>11684450000</v>
       </c>
-      <c r="D17" s="7" t="e">
-        <f>C17/#REF!</f>
-        <v>#REF!</v>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>8.3969791618292905E-2</v>
       </c>
       <c r="E17" s="6">
         <v>231020000.00000191</v>
       </c>
-      <c r="F17" s="7" t="e">
-        <f>E17/#REF!</f>
-        <v>#REF!</v>
+      <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3662628286805876E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -8337,16 +8364,16 @@
       <c r="C18" s="6">
         <v>1134580000</v>
       </c>
-      <c r="D18" s="7" t="e">
-        <f>C18/#REF!</f>
-        <v>#REF!</v>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>8.1536098125528176E-3</v>
       </c>
       <c r="E18" s="6">
         <v>161650000</v>
       </c>
-      <c r="F18" s="7" t="e">
-        <f>E18/#REF!</f>
-        <v>#REF!</v>
+      <c r="F18" s="7">
+        <f t="shared" si="1"/>
+        <v>9.5600548115407826E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -8359,16 +8386,16 @@
       <c r="C19" s="6">
         <v>251670000</v>
       </c>
-      <c r="D19" s="7" t="e">
-        <f>C19/#REF!</f>
-        <v>#REF!</v>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8086155066413716E-3</v>
       </c>
       <c r="E19" s="6">
         <v>104070000</v>
       </c>
-      <c r="F19" s="7" t="e">
-        <f>E19/#REF!</f>
-        <v>#REF!</v>
+      <c r="F19" s="7">
+        <f t="shared" si="1"/>
+        <v>6.1547473197466705E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -8381,16 +8408,16 @@
       <c r="C20" s="6">
         <v>1188950000</v>
       </c>
-      <c r="D20" s="7" t="e">
-        <f>C20/#REF!</f>
-        <v>#REF!</v>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>8.5443374523036467E-3</v>
       </c>
       <c r="E20" s="6">
         <v>96979999.99999994</v>
       </c>
-      <c r="F20" s="7" t="e">
-        <f>E20/#REF!</f>
-        <v>#REF!</v>
+      <c r="F20" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7354414823583329E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -8403,16 +8430,16 @@
       <c r="C21" s="6">
         <v>346330000</v>
       </c>
-      <c r="D21" s="7" t="e">
-        <f>C21/#REF!</f>
-        <v>#REF!</v>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4888854786629566E-3</v>
       </c>
       <c r="E21" s="6">
         <v>77530000</v>
       </c>
-      <c r="F21" s="7" t="e">
-        <f>E21/#REF!</f>
-        <v>#REF!</v>
+      <c r="F21" s="7">
+        <f t="shared" si="1"/>
+        <v>4.5851596012295506E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -8425,16 +8452,16 @@
       <c r="C22" s="6">
         <v>644220000</v>
       </c>
-      <c r="D22" s="7" t="e">
-        <f>C22/#REF!</f>
-        <v>#REF!</v>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>4.6296590046032678E-3</v>
       </c>
       <c r="E22" s="6">
         <v>47940000</v>
       </c>
-      <c r="F22" s="7" t="e">
-        <f>E22/#REF!</f>
-        <v>#REF!</v>
+      <c r="F22" s="7">
+        <f t="shared" si="1"/>
+        <v>2.8351934900418502E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -8447,16 +8474,16 @@
       <c r="C23" s="6">
         <v>1164230000</v>
       </c>
-      <c r="D23" s="7" t="e">
-        <f>C23/#REF!</f>
-        <v>#REF!</v>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.3666882476937428E-3</v>
       </c>
       <c r="E23" s="6">
         <v>38900000</v>
       </c>
-      <c r="F23" s="7" t="e">
-        <f>E23/#REF!</f>
-        <v>#REF!</v>
+      <c r="F23" s="7">
+        <f t="shared" si="1"/>
+        <v>2.3005637622575716E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -8469,16 +8496,16 @@
       <c r="C24" s="6">
         <v>275370000</v>
       </c>
-      <c r="D24" s="7" t="e">
-        <f>C24/#REF!</f>
-        <v>#REF!</v>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9789345256241687E-3</v>
       </c>
       <c r="E24" s="6">
         <v>30550000</v>
       </c>
-      <c r="F24" s="7" t="e">
-        <f>E24/#REF!</f>
-        <v>#REF!</v>
+      <c r="F24" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8067409495364734E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -8491,16 +8518,16 @@
       <c r="C25" s="6">
         <v>313840000</v>
       </c>
-      <c r="D25" s="7" t="e">
-        <f>C25/#REF!</f>
-        <v>#REF!</v>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2553975070700844E-3</v>
       </c>
       <c r="E25" s="6">
         <v>30160000</v>
       </c>
-      <c r="F25" s="7" t="e">
-        <f>E25/#REF!</f>
-        <v>#REF!</v>
+      <c r="F25" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7836761714572842E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -8513,16 +8540,16 @@
       <c r="C26" s="6">
         <v>21980000</v>
       </c>
-      <c r="D26" s="7" t="e">
-        <f>C26/#REF!</f>
-        <v>#REF!</v>
+      <c r="D26" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5795831380767414E-4</v>
       </c>
       <c r="E26" s="6">
         <v>16770000</v>
       </c>
-      <c r="F26" s="7" t="e">
-        <f>E26/#REF!</f>
-        <v>#REF!</v>
+      <c r="F26" s="7">
+        <f t="shared" si="1"/>
+        <v>9.917854574051279E-4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -8535,16 +8562,16 @@
       <c r="C27" s="6">
         <v>144310000</v>
       </c>
-      <c r="D27" s="7" t="e">
-        <f>C27/#REF!</f>
-        <v>#REF!</v>
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0370775371057986E-3</v>
       </c>
       <c r="E27" s="6">
         <v>14060000</v>
       </c>
-      <c r="F27" s="7" t="e">
-        <f>E27/#REF!</f>
-        <v>#REF!</v>
+      <c r="F27" s="7">
+        <f t="shared" si="1"/>
+        <v>8.315148199830708E-4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -8557,16 +8584,16 @@
       <c r="C28" s="6">
         <v>444970000</v>
       </c>
-      <c r="D28" s="7" t="e">
-        <f>C28/#REF!</f>
-        <v>#REF!</v>
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1977575475432558E-3</v>
       </c>
       <c r="E28" s="6">
         <v>10668000</v>
       </c>
-      <c r="F28" s="7" t="e">
-        <f>E28/#REF!</f>
-        <v>#REF!</v>
+      <c r="F28" s="7">
+        <f t="shared" si="1"/>
+        <v>6.3091039115073966E-4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -8579,16 +8606,16 @@
       <c r="C29" s="6">
         <v>59870000</v>
       </c>
-      <c r="D29" s="7" t="e">
-        <f>C29/#REF!</f>
-        <v>#REF!</v>
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3025315048523432E-4</v>
       </c>
       <c r="E29" s="6">
         <v>9740000</v>
       </c>
-      <c r="F29" s="7" t="e">
-        <f>E29/#REF!</f>
-        <v>#REF!</v>
+      <c r="F29" s="7">
+        <f t="shared" si="1"/>
+        <v>5.760280474135925E-4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -8601,16 +8628,16 @@
       <c r="C30" s="6">
         <v>69130000</v>
       </c>
-      <c r="D30" s="7" t="e">
-        <f>C30/#REF!</f>
-        <v>#REF!</v>
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9679973764897697E-4</v>
       </c>
       <c r="E30" s="6">
         <v>8150000</v>
       </c>
-      <c r="F30" s="7" t="e">
-        <f>E30/#REF!</f>
-        <v>#REF!</v>
+      <c r="F30" s="7">
+        <f t="shared" si="1"/>
+        <v>4.8199472139843721E-4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -8623,16 +8650,16 @@
       <c r="C31" s="6">
         <v>189500000</v>
       </c>
-      <c r="D31" s="7" t="e">
-        <f>C31/#REF!</f>
-        <v>#REF!</v>
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3618335062126593E-3</v>
       </c>
       <c r="E31" s="6">
         <v>3220000</v>
       </c>
-      <c r="F31" s="7" t="e">
-        <f>E31/#REF!</f>
-        <v>#REF!</v>
+      <c r="F31" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9043227029484267E-4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -8645,16 +8672,16 @@
       <c r="C32" s="6">
         <v>111380000</v>
       </c>
-      <c r="D32" s="7" t="e">
-        <f>C32/#REF!</f>
-        <v>#REF!</v>
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>8.0042752465417409E-4</v>
       </c>
       <c r="E32" s="6">
         <v>3190000</v>
       </c>
-      <c r="F32" s="7" t="e">
-        <f>E32/#REF!</f>
-        <v>#REF!</v>
+      <c r="F32" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8865805659644354E-4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -8667,16 +8694,16 @@
       <c r="C33" s="6">
         <v>19930000</v>
       </c>
-      <c r="D33" s="7" t="e">
-        <f>C33/#REF!</f>
-        <v>#REF!</v>
+      <c r="D33" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4322607798848705E-4</v>
       </c>
       <c r="E33" s="6">
         <v>3000000</v>
       </c>
-      <c r="F33" s="7" t="e">
-        <f>E33/#REF!</f>
-        <v>#REF!</v>
+      <c r="F33" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7742136983991554E-4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -8689,16 +8716,16 @@
       <c r="C34" s="6">
         <v>25830000</v>
       </c>
-      <c r="D34" s="7" t="e">
-        <f>C34/#REF!</f>
-        <v>#REF!</v>
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
+        <v>1.856261713217572E-4</v>
       </c>
       <c r="E34" s="6">
         <v>1820000</v>
       </c>
-      <c r="F34" s="7" t="e">
-        <f>E34/#REF!</f>
-        <v>#REF!</v>
+      <c r="F34" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0763563103621542E-4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -8711,16 +8738,16 @@
       <c r="C35" s="6">
         <v>109550000</v>
       </c>
-      <c r="D35" s="7" t="e">
-        <f>C35/#REF!</f>
-        <v>#REF!</v>
+      <c r="D35" s="7">
+        <f t="shared" ref="D35:D66" si="2">C35/$C$76</f>
+        <v>7.8727630926436309E-4</v>
       </c>
       <c r="E35" s="6">
         <v>1490000</v>
       </c>
-      <c r="F35" s="7" t="e">
-        <f>E35/#REF!</f>
-        <v>#REF!</v>
+      <c r="F35" s="7">
+        <f t="shared" ref="F35:F66" si="3">E35/$E$76</f>
+        <v>8.8119280353824724E-5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -8733,16 +8760,16 @@
       <c r="C36" s="6">
         <v>122460000</v>
       </c>
-      <c r="D36" s="7" t="e">
-        <f>C36/#REF!</f>
-        <v>#REF!</v>
+      <c r="D36" s="7">
+        <f t="shared" si="2"/>
+        <v>8.8005346264275592E-4</v>
       </c>
       <c r="E36" s="6">
         <v>1400000</v>
       </c>
-      <c r="F36" s="7" t="e">
-        <f>E36/#REF!</f>
-        <v>#REF!</v>
+      <c r="F36" s="7">
+        <f t="shared" si="3"/>
+        <v>8.2796639258627259E-5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -8755,16 +8782,16 @@
       <c r="C37" s="6">
         <v>6440000</v>
       </c>
-      <c r="D37" s="7" t="e">
-        <f>C37/#REF!</f>
-        <v>#REF!</v>
+      <c r="D37" s="7">
+        <f t="shared" si="2"/>
+        <v>4.6280779841738919E-5</v>
       </c>
       <c r="E37" s="6">
         <v>1010000</v>
       </c>
-      <c r="F37" s="7" t="e">
-        <f>E37/#REF!</f>
-        <v>#REF!</v>
+      <c r="F37" s="7">
+        <f t="shared" si="3"/>
+        <v>5.9731861179438234E-5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -8777,16 +8804,16 @@
       <c r="C38" s="6">
         <v>27930000</v>
       </c>
-      <c r="D38" s="7" t="e">
-        <f>C38/#REF!</f>
-        <v>#REF!</v>
+      <c r="D38" s="7">
+        <f t="shared" si="2"/>
+        <v>2.0071772996580248E-4</v>
       </c>
       <c r="E38" s="6">
         <v>850000</v>
       </c>
-      <c r="F38" s="7" t="e">
-        <f>E38/#REF!</f>
-        <v>#REF!</v>
+      <c r="F38" s="7">
+        <f t="shared" si="3"/>
+        <v>5.0269388121309407E-5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -8799,16 +8826,16 @@
       <c r="C39" s="6">
         <v>19600000</v>
       </c>
-      <c r="D39" s="7" t="e">
-        <f>C39/#REF!</f>
-        <v>#REF!</v>
+      <c r="D39" s="7">
+        <f t="shared" si="2"/>
+        <v>1.4085454734442279E-4</v>
       </c>
       <c r="E39" s="6">
         <v>580000</v>
       </c>
-      <c r="F39" s="7" t="e">
-        <f>E39/#REF!</f>
-        <v>#REF!</v>
+      <c r="F39" s="7">
+        <f t="shared" si="3"/>
+        <v>3.4301464835717006E-5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -8821,16 +8848,16 @@
       <c r="C40" s="6">
         <v>667480</v>
       </c>
-      <c r="D40" s="7" t="e">
-        <f>C40/#REF!</f>
-        <v>#REF!</v>
+      <c r="D40" s="7">
+        <f t="shared" si="2"/>
+        <v>4.7968159827273126E-6</v>
       </c>
       <c r="E40" s="6">
         <v>11570</v>
       </c>
-      <c r="F40" s="7" t="e">
-        <f>E40/#REF!</f>
-        <v>#REF!</v>
+      <c r="F40" s="7">
+        <f t="shared" si="3"/>
+        <v>6.8425508301594091E-7</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -8843,16 +8870,16 @@
       <c r="C41" s="6">
         <v>14470000</v>
       </c>
-      <c r="D41" s="7" t="e">
-        <f>C41/#REF!</f>
-        <v>#REF!</v>
+      <c r="D41" s="7">
+        <f t="shared" si="2"/>
+        <v>1.0398802551396928E-4</v>
       </c>
       <c r="E41" s="6">
         <v>-50000</v>
       </c>
-      <c r="F41" s="7" t="e">
-        <f>E41/#REF!</f>
-        <v>#REF!</v>
+      <c r="F41" s="7">
+        <f t="shared" si="3"/>
+        <v>-2.9570228306652591E-6</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -8865,16 +8892,16 @@
       <c r="C42" s="6">
         <v>2180000</v>
       </c>
-      <c r="D42" s="7" t="e">
-        <f>C42/#REF!</f>
-        <v>#REF!</v>
+      <c r="D42" s="7">
+        <f t="shared" si="2"/>
+        <v>1.5666475163818454E-5</v>
       </c>
       <c r="E42" s="6">
         <v>-190000</v>
       </c>
-      <c r="F42" s="7" t="e">
-        <f>E42/#REF!</f>
-        <v>#REF!</v>
+      <c r="F42" s="7">
+        <f t="shared" si="3"/>
+        <v>-1.1236686756527984E-5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -8887,16 +8914,16 @@
       <c r="C43" s="6">
         <v>4870000</v>
       </c>
-      <c r="D43" s="7" t="e">
-        <f>C43/#REF!</f>
-        <v>#REF!</v>
+      <c r="D43" s="7">
+        <f t="shared" si="2"/>
+        <v>3.4998043141190767E-5</v>
       </c>
       <c r="E43" s="6">
         <v>-400000</v>
       </c>
-      <c r="F43" s="7" t="e">
-        <f>E43/#REF!</f>
-        <v>#REF!</v>
+      <c r="F43" s="7">
+        <f t="shared" si="3"/>
+        <v>-2.3656182645322073E-5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -8909,16 +8936,16 @@
       <c r="C44" s="6">
         <v>508260000</v>
       </c>
-      <c r="D44" s="7" t="e">
-        <f>C44/#REF!</f>
-        <v>#REF!</v>
+      <c r="D44" s="7">
+        <f t="shared" si="2"/>
+        <v>3.6525883792487925E-3</v>
       </c>
       <c r="E44" s="6">
         <v>-450000</v>
       </c>
-      <c r="F44" s="7" t="e">
-        <f>E44/#REF!</f>
-        <v>#REF!</v>
+      <c r="F44" s="7">
+        <f t="shared" si="3"/>
+        <v>-2.661320547598733E-5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -8931,16 +8958,16 @@
       <c r="C45" s="6">
         <v>8350000</v>
       </c>
-      <c r="D45" s="7" t="e">
-        <f>C45/#REF!</f>
-        <v>#REF!</v>
+      <c r="D45" s="7">
+        <f t="shared" si="2"/>
+        <v>6.0006911751322981E-5</v>
       </c>
       <c r="E45" s="6">
         <v>-480000</v>
       </c>
-      <c r="F45" s="7" t="e">
-        <f>E45/#REF!</f>
-        <v>#REF!</v>
+      <c r="F45" s="7">
+        <f t="shared" si="3"/>
+        <v>-2.8387419174386487E-5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -8953,16 +8980,16 @@
       <c r="C46" s="6">
         <v>64060000</v>
       </c>
-      <c r="D46" s="7" t="e">
-        <f>C46/#REF!</f>
-        <v>#REF!</v>
+      <c r="D46" s="7">
+        <f t="shared" si="2"/>
+        <v>4.6036440320835331E-4</v>
       </c>
       <c r="E46" s="6">
         <v>-1180000</v>
       </c>
-      <c r="F46" s="7" t="e">
-        <f>E46/#REF!</f>
-        <v>#REF!</v>
+      <c r="F46" s="7">
+        <f t="shared" si="3"/>
+        <v>-6.9785738803700113E-5</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -8975,16 +9002,16 @@
       <c r="C47" s="6">
         <v>34820000</v>
       </c>
-      <c r="D47" s="7" t="e">
-        <f>C47/#REF!</f>
-        <v>#REF!</v>
+      <c r="D47" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5023241523126541E-4</v>
       </c>
       <c r="E47" s="6">
         <v>-1220000.0000000005</v>
       </c>
-      <c r="F47" s="7" t="e">
-        <f>E47/#REF!</f>
-        <v>#REF!</v>
+      <c r="F47" s="7">
+        <f t="shared" si="3"/>
+        <v>-7.2151357068232343E-5</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -8997,16 +9024,16 @@
       <c r="C48" s="6">
         <v>14170000</v>
       </c>
-      <c r="D48" s="7" t="e">
-        <f>C48/#REF!</f>
-        <v>#REF!</v>
+      <c r="D48" s="7">
+        <f t="shared" si="2"/>
+        <v>1.0183208856481996E-4</v>
       </c>
       <c r="E48" s="6">
         <v>-1310000</v>
       </c>
-      <c r="F48" s="7" t="e">
-        <f>E48/#REF!</f>
-        <v>#REF!</v>
+      <c r="F48" s="7">
+        <f t="shared" si="3"/>
+        <v>-7.7473998163429781E-5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -9019,16 +9046,16 @@
       <c r="C49" s="6">
         <v>6320000</v>
       </c>
-      <c r="D49" s="7" t="e">
-        <f>C49/#REF!</f>
-        <v>#REF!</v>
+      <c r="D49" s="7">
+        <f t="shared" si="2"/>
+        <v>4.5418405062079186E-5</v>
       </c>
       <c r="E49" s="6">
         <v>-1850000</v>
       </c>
-      <c r="F49" s="7" t="e">
-        <f>E49/#REF!</f>
-        <v>#REF!</v>
+      <c r="F49" s="7">
+        <f t="shared" si="3"/>
+        <v>-1.0940984473461458E-4</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -9041,16 +9068,16 @@
       <c r="C50" s="6">
         <v>38120000</v>
       </c>
-      <c r="D50" s="7" t="e">
-        <f>C50/#REF!</f>
-        <v>#REF!</v>
+      <c r="D50" s="7">
+        <f t="shared" si="2"/>
+        <v>2.7394772167190802E-4</v>
       </c>
       <c r="E50" s="6">
         <v>-1860000</v>
       </c>
-      <c r="F50" s="7" t="e">
-        <f>E50/#REF!</f>
-        <v>#REF!</v>
+      <c r="F50" s="7">
+        <f t="shared" si="3"/>
+        <v>-1.1000124930074764E-4</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -9063,16 +9090,16 @@
       <c r="C51" s="6">
         <v>29710000</v>
       </c>
-      <c r="D51" s="7" t="e">
-        <f>C51/#REF!</f>
-        <v>#REF!</v>
+      <c r="D51" s="7">
+        <f t="shared" si="2"/>
+        <v>2.1350962253075518E-4</v>
       </c>
       <c r="E51" s="6">
         <v>-1940000</v>
       </c>
-      <c r="F51" s="7" t="e">
-        <f>E51/#REF!</f>
-        <v>#REF!</v>
+      <c r="F51" s="7">
+        <f t="shared" si="3"/>
+        <v>-1.1473248582981205E-4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -9085,16 +9112,16 @@
       <c r="C52" s="6">
         <v>19570000</v>
       </c>
-      <c r="D52" s="7" t="e">
-        <f>C52/#REF!</f>
-        <v>#REF!</v>
+      <c r="D52" s="7">
+        <f t="shared" si="2"/>
+        <v>1.4063895364950786E-4</v>
       </c>
       <c r="E52" s="6">
         <v>-2500000</v>
       </c>
-      <c r="F52" s="7" t="e">
-        <f>E52/#REF!</f>
-        <v>#REF!</v>
+      <c r="F52" s="7">
+        <f t="shared" si="3"/>
+        <v>-1.4785114153326295E-4</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -9107,16 +9134,16 @@
       <c r="C53" s="6">
         <v>594450000</v>
       </c>
-      <c r="D53" s="7" t="e">
-        <f>C53/#REF!</f>
-        <v>#REF!</v>
+      <c r="D53" s="7">
+        <f t="shared" si="2"/>
+        <v>4.2719890647393947E-3</v>
       </c>
       <c r="E53" s="6">
         <v>-3700000</v>
       </c>
-      <c r="F53" s="7" t="e">
-        <f>E53/#REF!</f>
-        <v>#REF!</v>
+      <c r="F53" s="7">
+        <f t="shared" si="3"/>
+        <v>-2.1881968946922917E-4</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -9129,16 +9156,16 @@
       <c r="C54" s="6">
         <v>47140000</v>
       </c>
-      <c r="D54" s="7" t="e">
-        <f>C54/#REF!</f>
-        <v>#REF!</v>
+      <c r="D54" s="7">
+        <f t="shared" si="2"/>
+        <v>3.3876955927633113E-4</v>
       </c>
       <c r="E54" s="6">
         <v>-6970000</v>
       </c>
-      <c r="F54" s="7" t="e">
-        <f>E54/#REF!</f>
-        <v>#REF!</v>
+      <c r="F54" s="7">
+        <f t="shared" si="3"/>
+        <v>-4.1220898259473714E-4</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -9151,16 +9178,16 @@
       <c r="C55" s="6">
         <v>231690000</v>
       </c>
-      <c r="D55" s="7" t="e">
-        <f>C55/#REF!</f>
-        <v>#REF!</v>
+      <c r="D55" s="7">
+        <f t="shared" si="2"/>
+        <v>1.6650301058280265E-3</v>
       </c>
       <c r="E55" s="6">
         <v>-7200000</v>
       </c>
-      <c r="F55" s="7" t="e">
-        <f>E55/#REF!</f>
-        <v>#REF!</v>
+      <c r="F55" s="7">
+        <f t="shared" si="3"/>
+        <v>-4.2581128761579729E-4</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -9173,16 +9200,16 @@
       <c r="C56" s="6">
         <v>402220000</v>
       </c>
-      <c r="D56" s="7" t="e">
-        <f>C56/#REF!</f>
-        <v>#REF!</v>
+      <c r="D56" s="7">
+        <f t="shared" si="2"/>
+        <v>2.8905365322894764E-3</v>
       </c>
       <c r="E56" s="6">
         <v>-10100000.000000004</v>
       </c>
-      <c r="F56" s="7" t="e">
-        <f>E56/#REF!</f>
-        <v>#REF!</v>
+      <c r="F56" s="7">
+        <f t="shared" si="3"/>
+        <v>-5.9731861179438252E-4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -9195,16 +9222,16 @@
       <c r="C57" s="6">
         <v>49490000</v>
       </c>
-      <c r="D57" s="7" t="e">
-        <f>C57/#REF!</f>
-        <v>#REF!</v>
+      <c r="D57" s="7">
+        <f t="shared" si="2"/>
+        <v>3.5565773204466756E-4</v>
       </c>
       <c r="E57" s="6">
         <v>-13970000</v>
       </c>
-      <c r="F57" s="7" t="e">
-        <f>E57/#REF!</f>
-        <v>#REF!</v>
+      <c r="F57" s="7">
+        <f t="shared" si="3"/>
+        <v>-8.2619217888787338E-4</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -9217,16 +9244,16 @@
       <c r="C58" s="6">
         <v>345170000</v>
       </c>
-      <c r="D58" s="7" t="e">
-        <f>C58/#REF!</f>
-        <v>#REF!</v>
+      <c r="D58" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4805491891262458E-3</v>
       </c>
       <c r="E58" s="6">
         <v>-16470000</v>
       </c>
-      <c r="F58" s="7" t="e">
-        <f>E58/#REF!</f>
-        <v>#REF!</v>
+      <c r="F58" s="7">
+        <f t="shared" si="3"/>
+        <v>-9.740433204211363E-4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -9239,16 +9266,16 @@
       <c r="C59" s="6">
         <v>177540000</v>
       </c>
-      <c r="D59" s="7" t="e">
-        <f>C59/#REF!</f>
-        <v>#REF!</v>
+      <c r="D59" s="7">
+        <f t="shared" si="2"/>
+        <v>1.2758834865065727E-3</v>
       </c>
       <c r="E59" s="6">
         <v>-17120000</v>
       </c>
-      <c r="F59" s="7" t="e">
-        <f>E59/#REF!</f>
-        <v>#REF!</v>
+      <c r="F59" s="7">
+        <f t="shared" si="3"/>
+        <v>-1.0124846172197847E-3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -9261,16 +9288,16 @@
       <c r="C60" s="6">
         <v>215750000</v>
       </c>
-      <c r="D60" s="7" t="e">
-        <f>C60/#REF!</f>
-        <v>#REF!</v>
+      <c r="D60" s="7">
+        <f t="shared" si="2"/>
+        <v>1.5504779892632253E-3</v>
       </c>
       <c r="E60" s="6">
         <v>-22480000</v>
       </c>
-      <c r="F60" s="7" t="e">
-        <f>E60/#REF!</f>
-        <v>#REF!</v>
+      <c r="F60" s="7">
+        <f t="shared" si="3"/>
+        <v>-1.3294774646671005E-3</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -9283,16 +9310,16 @@
       <c r="C61" s="6">
         <v>1265530000</v>
       </c>
-      <c r="D61" s="7" t="e">
-        <f>C61/#REF!</f>
-        <v>#REF!</v>
+      <c r="D61" s="7">
+        <f t="shared" si="2"/>
+        <v>9.0946762908564998E-3</v>
       </c>
       <c r="E61" s="6">
         <v>-27820000</v>
       </c>
-      <c r="F61" s="7" t="e">
-        <f>E61/#REF!</f>
-        <v>#REF!</v>
+      <c r="F61" s="7">
+        <f t="shared" si="3"/>
+        <v>-1.6452875029821501E-3</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -9305,16 +9332,16 @@
       <c r="C62" s="6">
         <v>106650000</v>
       </c>
-      <c r="D62" s="7" t="e">
-        <f>C62/#REF!</f>
-        <v>#REF!</v>
+      <c r="D62" s="7">
+        <f t="shared" si="2"/>
+        <v>7.6643558542258627E-4</v>
       </c>
       <c r="E62" s="6">
         <v>-29120000</v>
       </c>
-      <c r="F62" s="7" t="e">
-        <f>E62/#REF!</f>
-        <v>#REF!</v>
+      <c r="F62" s="7">
+        <f t="shared" si="3"/>
+        <v>-1.7221700965794468E-3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -9327,16 +9354,16 @@
       <c r="C63" s="6">
         <v>118570000</v>
       </c>
-      <c r="D63" s="7" t="e">
-        <f>C63/#REF!</f>
-        <v>#REF!</v>
+      <c r="D63" s="7">
+        <f t="shared" si="2"/>
+        <v>8.5209814686878626E-4</v>
       </c>
       <c r="E63" s="6">
         <v>-32099000.000000007</v>
       </c>
-      <c r="F63" s="7" t="e">
-        <f>E63/#REF!</f>
-        <v>#REF!</v>
+      <c r="F63" s="7">
+        <f t="shared" si="3"/>
+        <v>-1.8983495168304835E-3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -9349,16 +9376,16 @@
       <c r="C64" s="6">
         <v>1279910000</v>
       </c>
-      <c r="D64" s="7" t="e">
-        <f>C64/#REF!</f>
-        <v>#REF!</v>
+      <c r="D64" s="7">
+        <f t="shared" si="2"/>
+        <v>9.198017535285723E-3</v>
       </c>
       <c r="E64" s="6">
         <v>-33769999.999999881</v>
       </c>
-      <c r="F64" s="7" t="e">
-        <f>E64/#REF!</f>
-        <v>#REF!</v>
+      <c r="F64" s="7">
+        <f t="shared" si="3"/>
+        <v>-1.9971732198313091E-3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -9371,16 +9398,16 @@
       <c r="C65" s="6">
         <v>344890000</v>
       </c>
-      <c r="D65" s="7" t="e">
-        <f>C65/#REF!</f>
-        <v>#REF!</v>
+      <c r="D65" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4785369813070399E-3</v>
       </c>
       <c r="E65" s="6">
         <v>-51720000</v>
       </c>
-      <c r="F65" s="7" t="e">
-        <f>E65/#REF!</f>
-        <v>#REF!</v>
+      <c r="F65" s="7">
+        <f t="shared" si="3"/>
+        <v>-3.0587444160401441E-3</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -9393,16 +9420,16 @@
       <c r="C66" s="6">
         <v>43340000</v>
       </c>
-      <c r="D66" s="7" t="e">
-        <f>C66/#REF!</f>
-        <v>#REF!</v>
+      <c r="D66" s="7">
+        <f t="shared" si="2"/>
+        <v>3.1146102458710635E-4</v>
       </c>
       <c r="E66" s="6">
         <v>-56850000</v>
       </c>
-      <c r="F66" s="7" t="e">
-        <f>E66/#REF!</f>
-        <v>#REF!</v>
+      <c r="F66" s="7">
+        <f t="shared" si="3"/>
+        <v>-3.3621349584663997E-3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -9415,16 +9442,16 @@
       <c r="C67" s="6">
         <v>379260000</v>
       </c>
-      <c r="D67" s="7" t="e">
-        <f>C67/#REF!</f>
-        <v>#REF!</v>
+      <c r="D67" s="7">
+        <f t="shared" ref="D67:D75" si="4">C67/$C$76</f>
+        <v>2.7255354911145811E-3</v>
       </c>
       <c r="E67" s="6">
         <v>-76360000</v>
       </c>
-      <c r="F67" s="7" t="e">
-        <f>E67/#REF!</f>
-        <v>#REF!</v>
+      <c r="F67" s="7">
+        <f t="shared" ref="F67:F75" si="5">E67/$E$76</f>
+        <v>-4.5159652669919835E-3</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -9437,16 +9464,16 @@
       <c r="C68" s="6">
         <v>8701110000</v>
       </c>
-      <c r="D68" s="7" t="e">
-        <f>C68/#REF!</f>
-        <v>#REF!</v>
+      <c r="D68" s="7">
+        <f t="shared" si="4"/>
+        <v>6.2530148492042387E-2</v>
       </c>
       <c r="E68" s="6">
         <v>-93830000</v>
       </c>
-      <c r="F68" s="7" t="e">
-        <f>E68/#REF!</f>
-        <v>#REF!</v>
+      <c r="F68" s="7">
+        <f t="shared" si="5"/>
+        <v>-5.5491490440264255E-3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -9459,16 +9486,16 @@
       <c r="C69" s="6">
         <v>673450000</v>
       </c>
-      <c r="D69" s="7" t="e">
-        <f>C69/#REF!</f>
-        <v>#REF!</v>
+      <c r="D69" s="7">
+        <f t="shared" si="4"/>
+        <v>4.839719128015384E-3</v>
       </c>
       <c r="E69" s="6">
         <v>-96390000</v>
       </c>
-      <c r="F69" s="7" t="e">
-        <f>E69/#REF!</f>
-        <v>#REF!</v>
+      <c r="F69" s="7">
+        <f t="shared" si="5"/>
+        <v>-5.7005486129564865E-3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -9481,16 +9508,16 @@
       <c r="C70" s="6">
         <v>3910000000</v>
       </c>
-      <c r="D70" s="7" t="e">
-        <f>C70/#REF!</f>
-        <v>#REF!</v>
+      <c r="D70" s="7">
+        <f t="shared" si="4"/>
+        <v>2.8099044903912917E-2</v>
       </c>
       <c r="E70" s="6">
         <v>-190000000</v>
       </c>
-      <c r="F70" s="7" t="e">
-        <f>E70/#REF!</f>
-        <v>#REF!</v>
+      <c r="F70" s="7">
+        <f t="shared" si="5"/>
+        <v>-1.1236686756527984E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -9503,16 +9530,16 @@
       <c r="C71" s="6">
         <v>1962770000</v>
       </c>
-      <c r="D71" s="7" t="e">
-        <f>C71/#REF!</f>
-        <v>#REF!</v>
+      <c r="D71" s="7">
+        <f t="shared" si="4"/>
+        <v>1.4105361218939426E-2</v>
       </c>
       <c r="E71" s="6">
         <v>-252360000</v>
       </c>
-      <c r="F71" s="7" t="e">
-        <f>E71/#REF!</f>
-        <v>#REF!</v>
+      <c r="F71" s="7">
+        <f t="shared" si="5"/>
+        <v>-1.4924685630933696E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -9525,16 +9552,16 @@
       <c r="C72" s="6">
         <v>5777790000</v>
       </c>
-      <c r="D72" s="7" t="e">
-        <f>C72/#REF!</f>
-        <v>#REF!</v>
+      <c r="D72" s="7">
+        <f t="shared" si="4"/>
+        <v>4.1521836484751662E-2</v>
       </c>
       <c r="E72" s="6">
         <v>-470180000</v>
       </c>
-      <c r="F72" s="7" t="e">
-        <f>E72/#REF!</f>
-        <v>#REF!</v>
+      <c r="F72" s="7">
+        <f t="shared" si="5"/>
+        <v>-2.7806659890443831E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -9547,16 +9574,16 @@
       <c r="C73" s="6">
         <v>563910000</v>
       </c>
-      <c r="D73" s="7" t="e">
-        <f>C73/#REF!</f>
-        <v>#REF!</v>
+      <c r="D73" s="7">
+        <f t="shared" si="4"/>
+        <v>4.0525146833159924E-3</v>
       </c>
       <c r="E73" s="6">
         <v>-492400000</v>
       </c>
-      <c r="F73" s="7" t="e">
-        <f>E73/#REF!</f>
-        <v>#REF!</v>
+      <c r="F73" s="7">
+        <f t="shared" si="5"/>
+        <v>-2.9120760836391472E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -9569,16 +9596,16 @@
       <c r="C74" s="6">
         <v>8251030000</v>
       </c>
-      <c r="D74" s="7" t="e">
-        <f>C74/#REF!</f>
-        <v>#REF!</v>
+      <c r="D74" s="7">
+        <f t="shared" si="4"/>
+        <v>5.9295668151798611E-2</v>
       </c>
       <c r="E74" s="6">
         <v>-1306290000</v>
       </c>
-      <c r="F74" s="7" t="e">
-        <f>E74/#REF!</f>
-        <v>#REF!</v>
+      <c r="F74" s="7">
+        <f t="shared" si="5"/>
+        <v>-7.725458706939442E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -9591,20 +9618,43 @@
       <c r="C75" s="6">
         <v>5833420000</v>
       </c>
-      <c r="D75" s="7" t="e">
-        <f>C75/#REF!</f>
-        <v>#REF!</v>
+      <c r="D75" s="7">
+        <f t="shared" si="4"/>
+        <v>4.1921619059688921E-2</v>
       </c>
       <c r="E75" s="6">
         <v>-1817050000</v>
       </c>
-      <c r="F75" s="7" t="e">
-        <f>E75/#REF!</f>
-        <v>#REF!</v>
+      <c r="F75" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.10746116668920618</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="8">
+        <f>SUM(C$3:C$75)</f>
+        <v>139150637090</v>
+      </c>
+      <c r="D76" s="9">
+        <f>SUM(D$3:D$75)</f>
+        <v>1</v>
+      </c>
+      <c r="E76" s="8">
+        <f>SUM(E$3:E$75)</f>
+        <v>16908898870</v>
+      </c>
+      <c r="F76" s="9">
+        <f>SUM(F$3:F$75)</f>
+        <v>1.0000000000000004</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A76:B76"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9616,7 +9666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J297"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9654,7 +9706,7 @@
         <v>974</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>975</v>
